--- a/perceptron.xlsx
+++ b/perceptron.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\xlladdins\xll_ml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A676938-70CC-4A65-BFB0-1273AA27105B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAE0ED1-7657-4DEF-B399-42125F0C8438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22276" windowHeight="13636" xr2:uid="{558188EE-F336-406B-B164-FFE50ADEF708}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="UPDATE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="alpha">Sheet1!$F$3</definedName>
-    <definedName name="b">Sheet1!$C$4</definedName>
-    <definedName name="w">Sheet1!$C$5:$C$6</definedName>
-    <definedName name="x">Sheet1!$F$5:$F$6</definedName>
-    <definedName name="y">Sheet1!$F$4</definedName>
+    <definedName name="alpha">UPDATE!$F$3</definedName>
+    <definedName name="b">UPDATE!$C$4</definedName>
+    <definedName name="w">UPDATE!$C$5:$C$6</definedName>
+    <definedName name="x">UPDATE!$F$5:$F$6</definedName>
+    <definedName name="y">UPDATE!$F$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,6 +43,72 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Keith Lewis</author>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{3EA856EE-D73D-4969-ADEA-9D6275226E37}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Input</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{37CF6789-857D-4049-BC94-2E3E1C6EA673}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Calculation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{116FDA85-EBB4-46A6-8D03-C81FE9AD4DC2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Output</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{EB579FE8-E935-4AF1-BF1D-0BA62F331167}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Check Cell</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Perceptron</t>
   </si>
@@ -88,6 +153,9 @@
   <si>
     <t>alpha</t>
   </si>
+  <si>
+    <t>w.x + b</t>
+  </si>
 </sst>
 </file>
 
@@ -96,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;0x&quot;#"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,16 +193,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -142,24 +263,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="5"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
     <cellStyle name="Handle" xfId="1" xr:uid="{64F36597-5689-468D-9B35-E38BA928EF03}"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="3" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -558,12 +736,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA93B9ED-DE02-48C5-AB41-8BFE82A7DE5D}">
-  <dimension ref="B2:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA93B9ED-DE02-48C5-AB41-8BFE82A7DE5D}">
+  <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -571,67 +747,92 @@
     <col min="2" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="21" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.65">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="E3" s="1" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:10" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="5">
         <f ca="1">-1 + 2*RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1">
+        <f ca="1">SUMPRODUCT(w,x)+b</f>
+        <v>1.2702490227770715</v>
+      </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="5">
         <f ca="1">RAND()</f>
-        <v>0.24923261637015925</v>
-      </c>
-      <c r="H5" s="1" cm="1">
+        <v>0.32949386927038438</v>
+      </c>
+      <c r="H5" s="6" cm="1">
         <f t="array" aca="1" ref="H5:H6" ca="1">_xll.PERCEPTRON.UPDATE(w, b, x, y, alpha)</f>
         <v>1</v>
       </c>
+      <c r="I5" s="1" cm="1">
+        <f t="array" aca="1" ref="I5:I6" ca="1">IF(I4*y&lt;0,w+alpha*y*x,w)</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="7" t="b">
+        <f ca="1">H5=I5</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
+    <row r="6" spans="2:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
         <f ca="1">RAND()</f>
-        <v>0.69596252501607081</v>
-      </c>
-      <c r="H6" s="1">
+        <v>0.94075515350668726</v>
+      </c>
+      <c r="H6" s="6">
         <f ca="1"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="7" t="b">
+        <f ca="1">H6=I6</f>
+        <v>1</v>
       </c>
     </row>
+    <row r="7" spans="2:10" ht="18.399999999999999" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>